--- a/code/backend/010.codegen/model/app-dev.service.xlsx
+++ b/code/backend/010.codegen/model/app-dev.service.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330" firstSheet="6" activeTab="7"/>
+    <workbookView windowWidth="27645" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="duzhou_dev_app_dict" sheetId="14" r:id="rId6"/>
     <sheet name="duzhou_dev_app_service" sheetId="11" r:id="rId7"/>
     <sheet name="duzhou_dev_app_entity" sheetId="12" r:id="rId8"/>
-    <sheet name="duzhou_dev_app_entity_prop" sheetId="15" r:id="rId9"/>
+    <sheet name="duzhou_dev_app_entity_column" sheetId="15" r:id="rId9"/>
     <sheet name="duzhou_dev_app_entity_relation" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="292">
   <si>
     <t>#变量名</t>
   </si>
@@ -215,13 +215,13 @@
     <t>需生成 SqlMapper 代码</t>
   </si>
   <si>
-    <t>app_dev/entity-prop-tagset</t>
+    <t>app_dev/entity-column-tagset</t>
   </si>
   <si>
     <t>实体字段标签</t>
   </si>
   <si>
-    <t>Entity Property Tag Set</t>
+    <t>Entity Column Tag Set</t>
   </si>
   <si>
     <t>seq</t>
@@ -451,10 +451,10 @@
     <t>数据版本</t>
   </si>
   <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t>显示用</t>
+    <t>DISPLAY_NAME</t>
+  </si>
+  <si>
+    <t>显示名称</t>
   </si>
   <si>
     <t>CODE</t>
@@ -499,10 +499,13 @@
     <t>UK_DEV_APP_CODE</t>
   </si>
   <si>
-    <t>titleKey</t>
-  </si>
-  <si>
-    <t>UK_DEV_APP_TITLE</t>
+    <t>displayNameKey</t>
+  </si>
+  <si>
+    <t>displayName</t>
+  </si>
+  <si>
+    <t>UK_DEV_APP_DISPLAY_NAME</t>
   </si>
   <si>
     <t>关联列表</t>
@@ -562,9 +565,6 @@
     <t>所属应用</t>
   </si>
   <si>
-    <t>唯一标识，按变量命名规范定义</t>
-  </si>
-  <si>
     <t>STD_DOMAIN</t>
   </si>
   <si>
@@ -697,7 +697,7 @@
     <t>所属服务</t>
   </si>
   <si>
-    <t>ENTITY_NAME</t>
+    <t>NAME</t>
   </si>
   <si>
     <t>实体名</t>
@@ -706,9 +706,6 @@
     <t>TABLE_NAME</t>
   </si>
   <si>
-    <t>数据库表名</t>
-  </si>
-  <si>
     <t>TAG_SET</t>
   </si>
   <si>
@@ -721,13 +718,13 @@
     <t>JSON 数组，元素为逗号分隔的属性列表</t>
   </si>
   <si>
-    <t>entityNameKey</t>
-  </si>
-  <si>
-    <t>entityName,serviceId</t>
-  </si>
-  <si>
-    <t>UK_DEV_APP_ENTITY_ENTITY_NAME</t>
+    <t>nameKey</t>
+  </si>
+  <si>
+    <t>name,serviceId</t>
+  </si>
+  <si>
+    <t>UK_DEV_APP_ENTITY_NAME</t>
   </si>
   <si>
     <t>在服务内唯一</t>
@@ -751,19 +748,19 @@
     <t>serviceId</t>
   </si>
   <si>
-    <t>duzhou_dev_app_entity_prop</t>
-  </si>
-  <si>
-    <t>DevAppEntityProp</t>
-  </si>
-  <si>
-    <t>应用 ORM 实体属性</t>
-  </si>
-  <si>
-    <t>Application ORM Entity Property</t>
-  </si>
-  <si>
-    <t>应用的持久化实体的属性</t>
+    <t>duzhou_dev_app_entity_column</t>
+  </si>
+  <si>
+    <t>DevAppEntityColumn</t>
+  </si>
+  <si>
+    <t>应用 ORM 实体字段</t>
+  </si>
+  <si>
+    <t>Application ORM Entity Column</t>
+  </si>
+  <si>
+    <t>应用的持久化实体的字段</t>
   </si>
   <si>
     <t>ENTITY_ID</t>
@@ -772,25 +769,19 @@
     <t>所属实体</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>采用驼峰命名规范</t>
-  </si>
-  <si>
-    <t>INDEX</t>
-  </si>
-  <si>
-    <t>IS_PRIMARY</t>
-  </si>
-  <si>
-    <t>是否为主键</t>
+    <t>PROP_ID</t>
+  </si>
+  <si>
+    <t>PRIMARY</t>
+  </si>
+  <si>
+    <t>是否主键</t>
   </si>
   <si>
     <t>BOOLEAN</t>
   </si>
   <si>
-    <t>IS_MANDATORY</t>
+    <t>MANDATORY</t>
   </si>
   <si>
     <t>是否非空</t>
@@ -805,28 +796,16 @@
     <t>引用字典</t>
   </si>
   <si>
-    <t>VALUE_TYPE</t>
-  </si>
-  <si>
-    <t>VALUE_PRECISION</t>
-  </si>
-  <si>
-    <t>值长度</t>
-  </si>
-  <si>
-    <t>VALUE_SCALE</t>
-  </si>
-  <si>
-    <t>值精度</t>
-  </si>
-  <si>
-    <t>VALUE_DEFAULT</t>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>字段长度</t>
+  </si>
+  <si>
+    <t>DEFAULT_VALUE</t>
   </si>
   <si>
     <t>默认值</t>
-  </si>
-  <si>
-    <t>nameKey</t>
   </si>
   <si>
     <t>name,entityId</t>
@@ -2671,8 +2650,8 @@
   <sheetPr/>
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A32" sqref="$A32:$XFD38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2720,7 +2699,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -2728,7 +2707,7 @@
         <v>106</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -2745,7 +2724,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -2768,7 +2747,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -2791,7 +2770,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -2928,10 +2907,10 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="14"/>
@@ -2957,10 +2936,10 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="17"/>
@@ -2986,10 +2965,10 @@
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="18" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -3013,10 +2992,10 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="17"/>
@@ -3040,10 +3019,10 @@
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="21" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="21"/>
@@ -3071,7 +3050,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>111</v>
@@ -3103,7 +3082,7 @@
         <v>223</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="6"/>
@@ -3118,7 +3097,7 @@
       <c r="L16" s="51"/>
       <c r="M16" s="6"/>
       <c r="N16" s="51" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="O16" s="10"/>
     </row>
@@ -3129,10 +3108,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="6" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="6"/>
@@ -3149,7 +3128,7 @@
       <c r="L17" s="51"/>
       <c r="M17" s="6"/>
       <c r="N17" s="51" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O17" s="10"/>
     </row>
@@ -3426,7 +3405,7 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:15">
       <c r="A33" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -3452,7 +3431,7 @@
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>47</v>
@@ -3561,7 +3540,7 @@
     </row>
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -3583,23 +3562,23 @@
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="6" t="s">
@@ -3618,13 +3597,13 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="6" t="s">
@@ -3643,7 +3622,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -3681,7 +3660,7 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="32"/>
       <c r="B45" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -3703,18 +3682,18 @@
         <v>26</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -3730,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -3786,21 +3765,21 @@
         <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="6" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="6" t="s">
@@ -3819,13 +3798,13 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="6" t="s">
@@ -3844,7 +3823,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -3882,7 +3861,7 @@
     <row r="54" s="1" customFormat="1" spans="1:15">
       <c r="A54" s="32"/>
       <c r="B54" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
@@ -3904,18 +3883,18 @@
         <v>26</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -3931,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -4339,8 +4318,8 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -5076,7 +5055,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="G30" sqref="G30:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5488,7 +5467,7 @@
         <v>139</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="17"/>
@@ -5504,9 +5483,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="53"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="53" t="s">
-        <v>140</v>
-      </c>
+      <c r="N15" s="53"/>
       <c r="O15" s="64"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="82.5" spans="1:15">
@@ -5813,12 +5790,12 @@
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
       <c r="G29" s="46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H29" s="47"/>
       <c r="I29" s="58"/>
@@ -5882,7 +5859,7 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="1:15">
       <c r="A33" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -5902,19 +5879,19 @@
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="32"/>
       <c r="B34" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="6"/>
@@ -5931,13 +5908,13 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="6"/>
@@ -5954,7 +5931,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -5990,7 +5967,7 @@
     <row r="38" s="1" customFormat="1" spans="1:15">
       <c r="A38" s="32"/>
       <c r="B38" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -6012,18 +5989,18 @@
         <v>26</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -6089,19 +6066,19 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="32"/>
       <c r="B43" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="6"/>
@@ -6118,13 +6095,13 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="6"/>
@@ -6141,7 +6118,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -6177,7 +6154,7 @@
     <row r="47" s="1" customFormat="1" spans="1:15">
       <c r="A47" s="32"/>
       <c r="B47" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -6199,18 +6176,18 @@
         <v>26</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -6407,7 +6384,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6455,7 +6432,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -6463,7 +6440,7 @@
         <v>106</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -6480,7 +6457,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -6503,7 +6480,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -6526,7 +6503,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -6663,10 +6640,10 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="14"/>
@@ -6690,14 +6667,12 @@
         <v>3</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
-        <v>77</v>
-      </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
         <v>139</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="17"/>
@@ -6713,18 +6688,18 @@
       <c r="K11" s="15"/>
       <c r="L11" s="53"/>
       <c r="M11" s="17"/>
-      <c r="N11" s="53" t="s">
-        <v>140</v>
-      </c>
+      <c r="N11" s="53"/>
       <c r="O11" s="64"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="33" spans="1:15">
+    <row r="12" s="2" customFormat="1" ht="16.5" spans="1:15">
       <c r="A12" s="15">
         <v>4</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="45" t="s">
+      <c r="C12" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="17" t="s">
@@ -6739,14 +6714,12 @@
         <v>33</v>
       </c>
       <c r="J12" s="50">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="53"/>
       <c r="M12" s="17"/>
-      <c r="N12" s="53" t="s">
-        <v>176</v>
-      </c>
+      <c r="N12" s="53"/>
       <c r="O12" s="64"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -7108,7 +7081,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:15">
       <c r="A30" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -7128,7 +7101,7 @@
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="32"/>
       <c r="B31" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="6" t="s">
@@ -7136,7 +7109,7 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>189</v>
@@ -7144,7 +7117,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="6" t="s">
@@ -7163,13 +7136,13 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="6" t="s">
@@ -7188,7 +7161,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -7226,7 +7199,7 @@
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="32"/>
       <c r="B35" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
@@ -7248,18 +7221,18 @@
         <v>26</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -7329,19 +7302,19 @@
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="32"/>
       <c r="B40" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="6"/>
@@ -7358,13 +7331,13 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="6"/>
@@ -7381,7 +7354,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -7417,7 +7390,7 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="32"/>
       <c r="B44" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
@@ -7439,18 +7412,18 @@
         <v>26</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -7647,7 +7620,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7902,10 +7875,10 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="14"/>
@@ -7929,14 +7902,12 @@
         <v>3</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
-        <v>77</v>
-      </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
         <v>139</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="17"/>
@@ -7952,9 +7923,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="53"/>
       <c r="M11" s="17"/>
-      <c r="N11" s="53" t="s">
-        <v>140</v>
-      </c>
+      <c r="N11" s="53"/>
       <c r="O11" s="64"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="33" spans="1:15">
@@ -7962,7 +7931,9 @@
         <v>4</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
+      <c r="C12" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="D12" s="17" t="s">
         <v>141</v>
       </c>
@@ -8348,7 +8319,7 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -8368,7 +8339,7 @@
     <row r="32" s="1" customFormat="1" spans="1:15">
       <c r="A32" s="32"/>
       <c r="B32" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6" t="s">
@@ -8376,7 +8347,7 @@
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>205</v>
@@ -8384,7 +8355,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="6" t="s">
@@ -8403,13 +8374,13 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="6" t="s">
@@ -8428,7 +8399,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -8466,7 +8437,7 @@
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="32"/>
       <c r="B36" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -8488,18 +8459,18 @@
         <v>26</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -8569,19 +8540,19 @@
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="32"/>
       <c r="B41" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="6"/>
@@ -8598,13 +8569,13 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="6"/>
@@ -8621,7 +8592,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -8657,7 +8628,7 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="32"/>
       <c r="B45" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -8679,18 +8650,18 @@
         <v>26</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -8887,7 +8858,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9298,10 +9269,10 @@
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="14"/>
@@ -9330,7 +9301,7 @@
         <v>139</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="17"/>
@@ -9595,7 +9566,7 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="1:15">
       <c r="A29" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -9617,7 +9588,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
@@ -9625,7 +9596,7 @@
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>212</v>
@@ -9633,7 +9604,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="6" t="s">
@@ -9652,13 +9623,13 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="6" t="s">
@@ -9677,7 +9648,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -9715,7 +9686,7 @@
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="32"/>
       <c r="B34" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -9737,18 +9708,18 @@
         <v>26</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -9818,19 +9789,19 @@
     <row r="39" s="1" customFormat="1" spans="1:15">
       <c r="A39" s="32"/>
       <c r="B39" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="6"/>
@@ -9853,7 +9824,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="6"/>
@@ -9864,13 +9835,13 @@
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="32"/>
       <c r="B41" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -9906,7 +9877,7 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="32"/>
       <c r="B43" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
@@ -9928,18 +9899,18 @@
         <v>26</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -10135,8 +10106,8 @@
   <sheetPr/>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38:O38"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10578,7 +10549,7 @@
         <v>139</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="17"/>
@@ -10636,7 +10607,7 @@
         <v>223</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="17"/>
@@ -10662,7 +10633,7 @@
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>111</v>
@@ -10689,7 +10660,7 @@
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>149</v>
@@ -10708,10 +10679,10 @@
       <c r="K20" s="19"/>
       <c r="L20" s="54"/>
       <c r="M20" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="N20" s="54" t="s">
         <v>227</v>
-      </c>
-      <c r="N20" s="54" t="s">
-        <v>228</v>
       </c>
       <c r="O20" s="65"/>
     </row>
@@ -10889,21 +10860,21 @@
         <v>1</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
       <c r="G30" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="58"/>
       <c r="J30" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K30" s="47"/>
       <c r="L30" s="47"/>
@@ -10981,7 +10952,7 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="1:15">
       <c r="A35" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -11007,7 +10978,7 @@
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>47</v>
@@ -11038,7 +11009,7 @@
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E37" s="45" t="s">
         <v>108</v>
@@ -11128,7 +11099,7 @@
     </row>
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -11150,23 +11121,23 @@
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="6" t="s">
@@ -11185,13 +11156,13 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="6" t="s">
@@ -11210,7 +11181,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -11248,7 +11219,7 @@
     <row r="47" s="1" customFormat="1" spans="1:15">
       <c r="A47" s="32"/>
       <c r="B47" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -11270,18 +11241,18 @@
         <v>26</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -11297,7 +11268,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -11351,19 +11322,19 @@
     <row r="52" s="1" customFormat="1" spans="1:15">
       <c r="A52" s="32"/>
       <c r="B52" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="6"/>
@@ -11380,13 +11351,13 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="6"/>
@@ -11403,7 +11374,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -11439,7 +11410,7 @@
     <row r="56" s="1" customFormat="1" spans="1:15">
       <c r="A56" s="32"/>
       <c r="B56" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
@@ -11461,18 +11432,18 @@
         <v>26</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -11686,7 +11657,7 @@
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D36" sqref="D36:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11734,7 +11705,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -11742,7 +11713,7 @@
         <v>106</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -11759,7 +11730,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -11782,7 +11753,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -11805,7 +11776,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -11942,10 +11913,10 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>244</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>245</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="14"/>
@@ -11974,7 +11945,7 @@
         <v>139</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="17"/>
@@ -11993,17 +11964,17 @@
       <c r="N11" s="53"/>
       <c r="O11" s="64"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="30" spans="1:15">
+    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:15">
       <c r="A12" s="10">
         <v>4</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="6" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="6"/>
@@ -12019,9 +11990,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="51"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="51" t="s">
-        <v>247</v>
-      </c>
+      <c r="N12" s="51"/>
       <c r="O12" s="10"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="16.5" spans="1:15">
@@ -12031,10 +12000,10 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="17"/>
@@ -12058,16 +12027,14 @@
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>111</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="10" t="s">
-        <v>125</v>
-      </c>
+      <c r="H14" s="10"/>
       <c r="I14" s="49" t="s">
         <v>33</v>
       </c>
@@ -12087,10 +12054,10 @@
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="21"/>
@@ -12098,7 +12065,7 @@
         <v>125</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J15" s="50"/>
       <c r="K15" s="19"/>
@@ -12116,10 +12083,10 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="6"/>
@@ -12127,7 +12094,7 @@
         <v>125</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J16" s="50"/>
       <c r="K16" s="10"/>
@@ -12145,7 +12112,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>117</v>
@@ -12172,10 +12139,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="6"/>
@@ -12199,10 +12166,10 @@
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="6" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="6"/>
@@ -12228,10 +12195,10 @@
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="6" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="6"/>
@@ -12253,10 +12220,10 @@
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="6" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>261</v>
+        <v>30</v>
       </c>
       <c r="F21" s="44"/>
       <c r="G21" s="6"/>
@@ -12278,10 +12245,10 @@
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="6"/>
@@ -12290,7 +12257,7 @@
         <v>33</v>
       </c>
       <c r="J22" s="50">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="51"/>
@@ -12421,21 +12388,21 @@
         <v>1</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
       <c r="G29" s="46" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H29" s="47"/>
       <c r="I29" s="58"/>
       <c r="J29" s="46" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K29" s="47"/>
       <c r="L29" s="47"/>
@@ -12513,7 +12480,7 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -12535,23 +12502,23 @@
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="6" t="s">
@@ -12570,13 +12537,13 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="6" t="s">
@@ -12595,7 +12562,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -12633,7 +12600,7 @@
     <row r="39" s="1" customFormat="1" spans="1:15">
       <c r="A39" s="32"/>
       <c r="B39" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
@@ -12655,18 +12622,18 @@
         <v>26</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -12682,7 +12649,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -12738,25 +12705,25 @@
         <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="6" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -12771,13 +12738,13 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="6" t="s">
@@ -12796,7 +12763,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -12834,7 +12801,7 @@
     <row r="48" s="1" customFormat="1" spans="1:15">
       <c r="A48" s="32"/>
       <c r="B48" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
@@ -12856,18 +12823,18 @@
         <v>26</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -12883,7 +12850,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -12939,21 +12906,21 @@
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="6" t="s">
@@ -12972,13 +12939,13 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="6" t="s">
@@ -12997,7 +12964,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
@@ -13035,7 +13002,7 @@
     <row r="57" s="1" customFormat="1" spans="1:15">
       <c r="A57" s="32"/>
       <c r="B57" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
@@ -13057,18 +13024,18 @@
         <v>26</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -13084,7 +13051,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>

--- a/code/backend/010.codegen/model/app-dev.service.xlsx
+++ b/code/backend/010.codegen/model/app-dev.service.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="27645" windowHeight="12330" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -4318,8 +4318,8 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11656,8 +11656,8 @@
   <sheetPr/>
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/code/backend/010.codegen/model/app-dev.service.xlsx
+++ b/code/backend/010.codegen/model/app-dev.service.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330" firstSheet="6" activeTab="8"/>
+    <workbookView windowWidth="27645" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="292">
   <si>
     <t>#变量名</t>
   </si>
@@ -159,6 +159,27 @@
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>json-1k</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>json-4k</t>
+  </si>
+  <si>
+    <t>4K</t>
+  </si>
+  <si>
+    <t>json-16m</t>
+  </si>
+  <si>
+    <t>16M</t>
   </si>
   <si>
     <t>app_dev/entity-tagset</t>
@@ -565,6 +586,9 @@
     <t>所属应用</t>
   </si>
   <si>
+    <t>NAME</t>
+  </si>
+  <si>
     <t>STD_DOMAIN</t>
   </si>
   <si>
@@ -589,22 +613,79 @@
     <t>SCALE</t>
   </si>
   <si>
+    <t>nameKey</t>
+  </si>
+  <si>
+    <t>name,appId</t>
+  </si>
+  <si>
+    <t>UK_DEV_APP_DOMAIN_NAME</t>
+  </si>
+  <si>
+    <t>在应用内唯一</t>
+  </si>
+  <si>
+    <t>duzhou_dev_app_dict</t>
+  </si>
+  <si>
+    <t>DevAppDict</t>
+  </si>
+  <si>
+    <t>字典定义</t>
+  </si>
+  <si>
+    <t>Dict</t>
+  </si>
+  <si>
+    <t>对应 ORM 实体的字段属性【字典】</t>
+  </si>
+  <si>
+    <t>唯一标识，按文件命名规范定义</t>
+  </si>
+  <si>
+    <t>OPTION_TYPE</t>
+  </si>
+  <si>
+    <t>字典项类型</t>
+  </si>
+  <si>
+    <t>OPTIONS</t>
+  </si>
+  <si>
+    <t>字典项列表</t>
+  </si>
+  <si>
+    <t>UK_DEV_APP_DICT_NAME</t>
+  </si>
+  <si>
+    <t>duzhou_dev_app_service</t>
+  </si>
+  <si>
+    <t>DevAppService</t>
+  </si>
+  <si>
+    <t>应用服务</t>
+  </si>
+  <si>
+    <t>Application Service</t>
+  </si>
+  <si>
+    <t>应用的后台服务</t>
+  </si>
+  <si>
     <t>code,appId</t>
   </si>
   <si>
-    <t>UK_DEV_APP_DOMAIN_CODE</t>
-  </si>
-  <si>
-    <t>在应用内唯一</t>
+    <t>UK_DEV_APP_SERVICE_CODE</t>
   </si>
   <si>
     <t>app</t>
   </si>
   <si>
-    <t>domains</t>
-  </si>
-  <si>
-    <t>pub,ref-pub</t>
+    <t>services</t>
+  </si>
+  <si>
+    <t>pub,ref-pub,ref-cascade-delete</t>
   </si>
   <si>
     <t>appId</t>
@@ -613,69 +694,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>duzhou_dev_app_dict</t>
-  </si>
-  <si>
-    <t>DevAppDict</t>
-  </si>
-  <si>
-    <t>字典定义</t>
-  </si>
-  <si>
-    <t>Dict</t>
-  </si>
-  <si>
-    <t>对应 ORM 实体的字段属性【字典】</t>
-  </si>
-  <si>
-    <t>唯一标识，按文件命名规范定义</t>
-  </si>
-  <si>
-    <t>OPTION_TYPE</t>
-  </si>
-  <si>
-    <t>字典项类型</t>
-  </si>
-  <si>
-    <t>OPTIONS</t>
-  </si>
-  <si>
-    <t>字典项列表</t>
-  </si>
-  <si>
-    <t>以 JSON 形式存储</t>
-  </si>
-  <si>
-    <t>UK_DEV_APP_DICT_CODE</t>
-  </si>
-  <si>
-    <t>dicts</t>
-  </si>
-  <si>
-    <t>duzhou_dev_app_service</t>
-  </si>
-  <si>
-    <t>DevAppService</t>
-  </si>
-  <si>
-    <t>应用服务</t>
-  </si>
-  <si>
-    <t>Application Service</t>
-  </si>
-  <si>
-    <t>应用的后台服务</t>
-  </si>
-  <si>
-    <t>UK_DEV_APP_SERVICE_CODE</t>
-  </si>
-  <si>
-    <t>services</t>
-  </si>
-  <si>
-    <t>pub,ref-pub,ref-cascade-delete</t>
-  </si>
-  <si>
     <t>duzhou_dev_app_entity</t>
   </si>
   <si>
@@ -697,9 +715,6 @@
     <t>所属服务</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
     <t>实体名</t>
   </si>
   <si>
@@ -712,13 +727,13 @@
     <t>UNIQUE_KEYS</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>JSON 数组，元素为逗号分隔的属性列表</t>
   </si>
   <si>
-    <t>nameKey</t>
+    <t>ALIASES</t>
+  </si>
+  <si>
+    <t>别名列表</t>
   </si>
   <si>
     <t>name,serviceId</t>
@@ -730,9 +745,6 @@
     <t>在服务内唯一</t>
   </si>
   <si>
-    <t>别名列表</t>
-  </si>
-  <si>
     <t>属性路径</t>
   </si>
   <si>
@@ -787,10 +799,10 @@
     <t>是否非空</t>
   </si>
   <si>
-    <t>DOMAIN_ID</t>
-  </si>
-  <si>
-    <t>DICT_ID</t>
+    <t>DOMAIN_NAME</t>
+  </si>
+  <si>
+    <t>DICT_NAME</t>
   </si>
   <si>
     <t>引用字典</t>
@@ -824,18 +836,6 @@
   </si>
   <si>
     <t>entityId</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>domainId</t>
-  </si>
-  <si>
-    <t>dict</t>
-  </si>
-  <si>
-    <t>dictId</t>
   </si>
   <si>
     <t>duzhou_dev_app_entity_relation</t>
@@ -2166,8 +2166,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2651,7 +2651,7 @@
   <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2673,12 +2673,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2704,7 +2704,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>269</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2729,7 +2729,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="39"/>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2752,7 +2752,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="39"/>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2822,31 +2822,31 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>29</v>
@@ -2855,16 +2855,16 @@
         <v>30</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -2872,21 +2872,21 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I9" s="49" t="s">
         <v>33</v>
@@ -2915,7 +2915,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="14"/>
       <c r="H10" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I10" s="49" t="s">
         <v>33</v>
@@ -2944,7 +2944,7 @@
       <c r="F11" s="41"/>
       <c r="G11" s="17"/>
       <c r="H11" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I11" s="49" t="s">
         <v>33</v>
@@ -2972,7 +2972,9 @@
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="I12" s="49" t="s">
         <v>33</v>
       </c>
@@ -3022,12 +3024,12 @@
         <v>281</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="21"/>
       <c r="H14" s="42" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I14" s="49" t="s">
         <v>33</v>
@@ -3037,7 +3039,7 @@
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="54" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M14" s="21"/>
       <c r="N14" s="54"/>
@@ -3050,15 +3052,15 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="6" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="6"/>
       <c r="H15" s="42" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I15" s="49" t="s">
         <v>33</v>
@@ -3079,7 +3081,7 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="18" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>282</v>
@@ -3114,16 +3116,16 @@
         <v>285</v>
       </c>
       <c r="F17" s="44"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="H17" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I17" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="50">
-        <v>200</v>
-      </c>
+      <c r="J17" s="50"/>
       <c r="K17" s="10"/>
       <c r="L17" s="51"/>
       <c r="M17" s="6"/>
@@ -3270,7 +3272,7 @@
     </row>
     <row r="26" s="3" customFormat="1" spans="1:15">
       <c r="A26" s="24" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -3292,25 +3294,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="27" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="J27" s="27" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
@@ -3405,7 +3407,7 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:15">
       <c r="A33" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -3431,13 +3433,13 @@
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="27" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>28</v>
@@ -3445,7 +3447,7 @@
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="J34" s="27" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K34" s="57"/>
       <c r="L34" s="57"/>
@@ -3540,7 +3542,7 @@
     </row>
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -3562,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6" t="s">
@@ -3570,7 +3572,7 @@
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>288</v>
@@ -3578,11 +3580,11 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="6" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -3591,23 +3593,23 @@
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="32"/>
       <c r="B42" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -3616,13 +3618,13 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="32"/>
       <c r="B43" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -3637,7 +3639,7 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="32"/>
       <c r="B44" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
@@ -3647,11 +3649,11 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="59" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M44" s="69"/>
       <c r="N44" s="69"/>
@@ -3660,7 +3662,7 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="32"/>
       <c r="B45" s="33" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -3682,18 +3684,18 @@
         <v>26</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -3714,7 +3716,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -3765,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="6" t="s">
@@ -3773,17 +3775,17 @@
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="6" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -3792,23 +3794,23 @@
     <row r="51" s="1" customFormat="1" spans="1:15">
       <c r="A51" s="32"/>
       <c r="B51" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -3817,13 +3819,13 @@
     <row r="52" s="1" customFormat="1" spans="1:15">
       <c r="A52" s="32"/>
       <c r="B52" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -3838,7 +3840,7 @@
     <row r="53" s="1" customFormat="1" spans="1:15">
       <c r="A53" s="32"/>
       <c r="B53" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="6"/>
@@ -3848,11 +3850,11 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="59" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M53" s="69"/>
       <c r="N53" s="69"/>
@@ -3861,7 +3863,7 @@
     <row r="54" s="1" customFormat="1" spans="1:15">
       <c r="A54" s="32"/>
       <c r="B54" s="33" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
@@ -3883,18 +3885,18 @@
         <v>26</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -3915,7 +3917,7 @@
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -4109,10 +4111,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4298,14 +4300,62 @@
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="104"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
+    <row r="11" s="104" customFormat="1" spans="1:7">
+      <c r="A11" s="10">
+        <v>1</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" s="104" customFormat="1" spans="1:7">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" s="104" customFormat="1" spans="1:7">
+      <c r="A13" s="10">
+        <v>1</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4319,7 +4369,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4342,30 +4392,30 @@
       <c r="C1" s="85"/>
       <c r="D1" s="86"/>
       <c r="E1" s="98" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F1" s="99" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G1" s="100" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="87"/>
       <c r="B2" s="84" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="86"/>
       <c r="E2" s="98" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F2" s="84" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G2" s="93" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4376,7 +4426,7 @@
       <c r="C3" s="85"/>
       <c r="D3" s="86"/>
       <c r="E3" s="46" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="58"/>
@@ -4384,7 +4434,7 @@
     <row r="4" spans="1:7">
       <c r="A4" s="87"/>
       <c r="B4" s="88" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -4398,16 +4448,16 @@
         <v>26</v>
       </c>
       <c r="C5" s="91" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E5" s="92" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="92" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G5" s="92" t="s">
         <v>10</v>
@@ -4419,13 +4469,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E6" s="102" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F6" s="102"/>
       <c r="G6" s="102"/>
@@ -4436,13 +4486,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E7" s="102" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F7" s="102"/>
       <c r="G7" s="102"/>
@@ -4453,13 +4503,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="93" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D8" s="93" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E8" s="102" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F8" s="102"/>
       <c r="G8" s="102"/>
@@ -4492,30 +4542,30 @@
       <c r="C11" s="85"/>
       <c r="D11" s="86"/>
       <c r="E11" s="98" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F11" s="99" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G11" s="100" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="87"/>
       <c r="B12" s="84" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C12" s="85"/>
       <c r="D12" s="86"/>
       <c r="E12" s="98" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G12" s="93" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4526,7 +4576,7 @@
       <c r="C13" s="85"/>
       <c r="D13" s="86"/>
       <c r="E13" s="46" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="58"/>
@@ -4534,7 +4584,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="87"/>
       <c r="B14" s="88" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C14" s="89"/>
       <c r="D14" s="89"/>
@@ -4548,16 +4598,16 @@
         <v>26</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D15" s="92" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E15" s="92" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="92" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G15" s="92" t="s">
         <v>10</v>
@@ -4569,13 +4619,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="93" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D16" s="93" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E16" s="102" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F16" s="102"/>
       <c r="G16" s="102"/>
@@ -4586,17 +4636,17 @@
         <v>1</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E17" s="102" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F17" s="102"/>
       <c r="G17" s="102" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4605,13 +4655,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="93" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
@@ -4622,13 +4672,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D19" s="93" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E19" s="102" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F19" s="102"/>
       <c r="G19" s="102"/>
@@ -4639,17 +4689,17 @@
         <v>1</v>
       </c>
       <c r="C20" s="93" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D20" s="93" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E20" s="102" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F20" s="102"/>
       <c r="G20" s="102" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4658,13 +4708,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="93" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E21" s="102" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F21" s="102"/>
       <c r="G21" s="102"/>
@@ -4675,13 +4725,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="93" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D22" s="93" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E22" s="102" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F22" s="102"/>
       <c r="G22" s="102"/>
@@ -4692,13 +4742,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D23" s="93" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E23" s="102" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F23" s="102"/>
       <c r="G23" s="102"/>
@@ -4731,30 +4781,30 @@
       <c r="C26" s="85"/>
       <c r="D26" s="86"/>
       <c r="E26" s="98" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F26" s="99" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="87"/>
       <c r="B27" s="84" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C27" s="85"/>
       <c r="D27" s="86"/>
       <c r="E27" s="98" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F27" s="84" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G27" s="93" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4765,7 +4815,7 @@
       <c r="C28" s="85"/>
       <c r="D28" s="86"/>
       <c r="E28" s="46" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F28" s="47"/>
       <c r="G28" s="58"/>
@@ -4773,7 +4823,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="87"/>
       <c r="B29" s="88" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C29" s="89"/>
       <c r="D29" s="89"/>
@@ -4787,16 +4837,16 @@
         <v>26</v>
       </c>
       <c r="C30" s="91" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D30" s="92" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E30" s="92" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="92" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G30" s="92" t="s">
         <v>10</v>
@@ -4808,13 +4858,13 @@
         <v>1</v>
       </c>
       <c r="C31" s="93" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D31" s="93" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E31" s="102" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F31" s="102"/>
       <c r="G31" s="102"/>
@@ -4825,13 +4875,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="93" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D32" s="93" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E32" s="102" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F32" s="102"/>
       <c r="G32" s="102"/>
@@ -4873,30 +4923,30 @@
       <c r="C36" s="85"/>
       <c r="D36" s="86"/>
       <c r="E36" s="98" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F36" s="99" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G36" s="100" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="87"/>
       <c r="B37" s="84" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C37" s="85"/>
       <c r="D37" s="86"/>
       <c r="E37" s="98" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F37" s="84" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G37" s="93" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4907,7 +4957,7 @@
       <c r="C38" s="85"/>
       <c r="D38" s="86"/>
       <c r="E38" s="46" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F38" s="47"/>
       <c r="G38" s="58"/>
@@ -4915,7 +4965,7 @@
     <row r="39" spans="1:7">
       <c r="A39" s="87"/>
       <c r="B39" s="88" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C39" s="89"/>
       <c r="D39" s="89"/>
@@ -4929,16 +4979,16 @@
         <v>26</v>
       </c>
       <c r="C40" s="91" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D40" s="92" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E40" s="92" t="s">
         <v>5</v>
       </c>
       <c r="F40" s="92" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G40" s="92" t="s">
         <v>10</v>
@@ -4950,13 +5000,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="93" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D41" s="93" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E41" s="102" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F41" s="102"/>
       <c r="G41" s="102"/>
@@ -4967,13 +5017,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="93" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D42" s="93" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E42" s="102" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F42" s="102"/>
       <c r="G42" s="102"/>
@@ -4984,13 +5034,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="93" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D43" s="93" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E43" s="102" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F43" s="102"/>
       <c r="G43" s="102"/>
@@ -5055,7 +5105,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:I30"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5077,12 +5127,12 @@
   <sheetData>
     <row r="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -5098,20 +5148,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -5123,17 +5173,17 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="39"/>
@@ -5146,17 +5196,17 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="39"/>
@@ -5169,7 +5219,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5205,7 +5255,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -5224,31 +5274,31 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>29</v>
@@ -5257,16 +5307,16 @@
         <v>30</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -5274,21 +5324,21 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I9" s="49" t="s">
         <v>33</v>
@@ -5309,10 +5359,10 @@
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="6" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="6" t="s">
@@ -5338,20 +5388,20 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -5365,21 +5415,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>33</v>
@@ -5398,26 +5448,26 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="17" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
@@ -5433,17 +5483,17 @@
       <c r="B14" s="73"/>
       <c r="C14" s="74"/>
       <c r="D14" s="75" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F14" s="76"/>
       <c r="G14" s="75" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="73" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I14" s="75" t="s">
         <v>39</v>
@@ -5464,15 +5514,15 @@
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="17"/>
       <c r="H15" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I15" s="49" t="s">
         <v>33</v>
@@ -5493,15 +5543,15 @@
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="17"/>
       <c r="H16" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I16" s="49" t="s">
         <v>33</v>
@@ -5513,7 +5563,7 @@
       <c r="L16" s="53"/>
       <c r="M16" s="17"/>
       <c r="N16" s="53" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="O16" s="64"/>
     </row>
@@ -5524,15 +5574,15 @@
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="17"/>
       <c r="H17" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I17" s="49" t="s">
         <v>33</v>
@@ -5553,10 +5603,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="6" t="s">
@@ -5566,9 +5616,7 @@
       <c r="I18" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="50">
-        <v>200</v>
-      </c>
+      <c r="J18" s="50"/>
       <c r="K18" s="10"/>
       <c r="L18" s="51"/>
       <c r="M18" s="6"/>
@@ -5582,15 +5630,15 @@
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="6" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="6"/>
       <c r="H19" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I19" s="49" t="s">
         <v>33</v>
@@ -5708,7 +5756,7 @@
     </row>
     <row r="26" s="3" customFormat="1" spans="1:15">
       <c r="A26" s="24" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -5730,25 +5778,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="27" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="J27" s="27" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
@@ -5761,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
@@ -5770,7 +5818,7 @@
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
       <c r="G28" s="46" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H28" s="47"/>
       <c r="I28" s="58"/>
@@ -5786,16 +5834,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
       <c r="G29" s="46" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H29" s="47"/>
       <c r="I29" s="58"/>
@@ -5859,7 +5907,7 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="1:15">
       <c r="A33" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -5879,19 +5927,19 @@
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="32"/>
       <c r="B34" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="6"/>
@@ -5902,19 +5950,19 @@
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="32"/>
       <c r="B35" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="6"/>
@@ -5925,13 +5973,13 @@
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="32"/>
       <c r="B36" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -5946,7 +5994,7 @@
     <row r="37" s="1" customFormat="1" spans="1:15">
       <c r="A37" s="32"/>
       <c r="B37" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="6"/>
@@ -5956,7 +6004,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="6"/>
@@ -5967,7 +6015,7 @@
     <row r="38" s="1" customFormat="1" spans="1:15">
       <c r="A38" s="32"/>
       <c r="B38" s="33" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -5989,18 +6037,18 @@
         <v>26</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -6066,19 +6114,19 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="32"/>
       <c r="B43" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="6"/>
@@ -6089,19 +6137,19 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="32"/>
       <c r="B44" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="6"/>
@@ -6112,13 +6160,13 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="32"/>
       <c r="B45" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -6133,7 +6181,7 @@
     <row r="46" s="1" customFormat="1" spans="1:15">
       <c r="A46" s="32"/>
       <c r="B46" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="6"/>
@@ -6143,7 +6191,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="6"/>
@@ -6154,7 +6202,7 @@
     <row r="47" s="1" customFormat="1" spans="1:15">
       <c r="A47" s="32"/>
       <c r="B47" s="33" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -6176,18 +6224,18 @@
         <v>26</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -6383,8 +6431,8 @@
   <sheetPr/>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6406,12 +6454,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -6427,20 +6475,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -6452,17 +6500,17 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="39"/>
@@ -6475,17 +6523,17 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="39"/>
@@ -6498,12 +6546,12 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -6536,7 +6584,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -6555,31 +6603,31 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>29</v>
@@ -6588,16 +6636,16 @@
         <v>30</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -6605,21 +6653,21 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I9" s="49" t="s">
         <v>33</v>
@@ -6640,15 +6688,15 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="14"/>
       <c r="H10" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I10" s="49" t="s">
         <v>33</v>
@@ -6669,15 +6717,15 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="17"/>
       <c r="H11" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I11" s="49" t="s">
         <v>33</v>
@@ -6697,18 +6745,18 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="17"/>
       <c r="H12" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I12" s="49" t="s">
         <v>33</v>
@@ -6729,7 +6777,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="45" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>27</v>
@@ -6745,7 +6793,7 @@
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="45" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="51"/>
@@ -6758,15 +6806,15 @@
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="45" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="6"/>
       <c r="H14" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I14" s="49" t="s">
         <v>33</v>
@@ -6776,7 +6824,7 @@
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="45" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="51"/>
@@ -6789,10 +6837,10 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="45" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="6"/>
@@ -6814,7 +6862,7 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="45" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>30</v>
@@ -6936,7 +6984,7 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:15">
       <c r="A23" s="24" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6958,25 +7006,25 @@
         <v>26</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="27" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="J24" s="27" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K24" s="57"/>
       <c r="L24" s="57"/>
@@ -6989,21 +7037,21 @@
         <v>1</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
       <c r="G25" s="46" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="58"/>
       <c r="J25" s="46" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K25" s="47"/>
       <c r="L25" s="47"/>
@@ -7081,7 +7129,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:15">
       <c r="A30" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -7101,28 +7149,22 @@
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="32"/>
       <c r="B31" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="6" t="s">
-        <v>188</v>
-      </c>
+      <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>189</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K31" s="4"/>
-      <c r="L31" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -7130,24 +7172,22 @@
     <row r="32" s="1" customFormat="1" spans="1:15">
       <c r="A32" s="32"/>
       <c r="B32" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K32" s="4"/>
-      <c r="L32" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -7155,13 +7195,13 @@
     <row r="33" s="1" customFormat="1" spans="1:15">
       <c r="A33" s="32"/>
       <c r="B33" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -7176,7 +7216,7 @@
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="32"/>
       <c r="B34" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="6"/>
@@ -7186,12 +7226,10 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K34" s="4"/>
-      <c r="L34" s="46" t="s">
-        <v>190</v>
-      </c>
+      <c r="L34" s="46"/>
       <c r="M34" s="47"/>
       <c r="N34" s="47"/>
       <c r="O34" s="58"/>
@@ -7199,7 +7237,7 @@
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="32"/>
       <c r="B35" s="33" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
@@ -7221,18 +7259,18 @@
         <v>26</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -7247,14 +7285,10 @@
       <c r="B37" s="10">
         <v>1</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -7302,19 +7336,19 @@
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="32"/>
       <c r="B40" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="6"/>
@@ -7325,19 +7359,19 @@
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="32"/>
       <c r="B41" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="6"/>
@@ -7348,13 +7382,13 @@
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="32"/>
       <c r="B42" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -7369,7 +7403,7 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="32"/>
       <c r="B43" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
@@ -7379,7 +7413,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="6"/>
@@ -7390,7 +7424,7 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="32"/>
       <c r="B44" s="33" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
@@ -7412,18 +7446,18 @@
         <v>26</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -7620,7 +7654,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7641,12 +7675,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -7662,20 +7696,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -7687,17 +7721,17 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="39"/>
@@ -7710,17 +7744,17 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="39"/>
@@ -7733,12 +7767,12 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -7771,7 +7805,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -7790,31 +7824,31 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>29</v>
@@ -7823,16 +7857,16 @@
         <v>30</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -7840,21 +7874,21 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I9" s="49" t="s">
         <v>33</v>
@@ -7875,15 +7909,15 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="14"/>
       <c r="H10" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I10" s="49" t="s">
         <v>33</v>
@@ -7904,15 +7938,15 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="17"/>
       <c r="H11" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I11" s="49" t="s">
         <v>33</v>
@@ -7932,18 +7966,18 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="17"/>
       <c r="H12" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I12" s="49" t="s">
         <v>33</v>
@@ -7955,7 +7989,7 @@
       <c r="L12" s="53"/>
       <c r="M12" s="17"/>
       <c r="N12" s="53" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O12" s="64"/>
     </row>
@@ -7966,15 +8000,15 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="17"/>
       <c r="H13" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I13" s="49" t="s">
         <v>33</v>
@@ -7988,35 +8022,33 @@
       <c r="N13" s="53"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:15">
+    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:15">
       <c r="A14" s="10">
         <v>6</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F14" s="43"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="H14" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I14" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="50">
-        <v>2000</v>
-      </c>
+      <c r="J14" s="50"/>
       <c r="K14" s="10"/>
       <c r="L14" s="51"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="51" t="s">
-        <v>203</v>
-      </c>
+      <c r="N14" s="51"/>
       <c r="O14" s="10"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -8174,7 +8206,7 @@
     </row>
     <row r="24" s="3" customFormat="1" spans="1:15">
       <c r="A24" s="24" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -8196,25 +8228,25 @@
         <v>26</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="27" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="27" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -8227,21 +8259,21 @@
         <v>1</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
       <c r="G26" s="46" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="58"/>
       <c r="J26" s="46" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K26" s="47"/>
       <c r="L26" s="47"/>
@@ -8319,7 +8351,7 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -8339,28 +8371,22 @@
     <row r="32" s="1" customFormat="1" spans="1:15">
       <c r="A32" s="32"/>
       <c r="B32" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="6" t="s">
-        <v>188</v>
-      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>205</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K32" s="4"/>
-      <c r="L32" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -8368,24 +8394,22 @@
     <row r="33" s="1" customFormat="1" spans="1:15">
       <c r="A33" s="32"/>
       <c r="B33" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K33" s="4"/>
-      <c r="L33" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
@@ -8393,13 +8417,13 @@
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="32"/>
       <c r="B34" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -8414,7 +8438,7 @@
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="32"/>
       <c r="B35" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="6"/>
@@ -8424,12 +8448,10 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K35" s="4"/>
-      <c r="L35" s="46" t="s">
-        <v>190</v>
-      </c>
+      <c r="L35" s="46"/>
       <c r="M35" s="47"/>
       <c r="N35" s="47"/>
       <c r="O35" s="58"/>
@@ -8437,7 +8459,7 @@
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="32"/>
       <c r="B36" s="33" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -8459,18 +8481,18 @@
         <v>26</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -8485,14 +8507,10 @@
       <c r="B38" s="10">
         <v>1</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
@@ -8540,19 +8558,19 @@
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="32"/>
       <c r="B41" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="6"/>
@@ -8563,19 +8581,19 @@
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="32"/>
       <c r="B42" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="6"/>
@@ -8586,13 +8604,13 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="32"/>
       <c r="B43" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -8607,7 +8625,7 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="32"/>
       <c r="B44" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
@@ -8617,7 +8635,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="6"/>
@@ -8628,7 +8646,7 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="32"/>
       <c r="B45" s="33" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -8650,18 +8668,18 @@
         <v>26</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -8858,7 +8876,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8880,12 +8898,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -8901,20 +8919,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -8926,17 +8944,17 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="39"/>
@@ -8949,17 +8967,17 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="39"/>
@@ -8972,12 +8990,12 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -9010,7 +9028,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -9029,31 +9047,31 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>29</v>
@@ -9062,16 +9080,16 @@
         <v>30</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -9079,21 +9097,21 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I9" s="49" t="s">
         <v>33</v>
@@ -9114,10 +9132,10 @@
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="6" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="6" t="s">
@@ -9143,20 +9161,20 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -9170,21 +9188,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>33</v>
@@ -9203,26 +9221,26 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="17" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
@@ -9238,17 +9256,17 @@
       <c r="B14" s="73"/>
       <c r="C14" s="74"/>
       <c r="D14" s="75" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F14" s="76"/>
       <c r="G14" s="75" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="73" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I14" s="75" t="s">
         <v>39</v>
@@ -9269,15 +9287,15 @@
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="14"/>
       <c r="H15" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I15" s="49" t="s">
         <v>33</v>
@@ -9298,15 +9316,15 @@
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="17"/>
       <c r="H16" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I16" s="49" t="s">
         <v>33</v>
@@ -9327,15 +9345,15 @@
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="17"/>
       <c r="H17" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I17" s="49" t="s">
         <v>33</v>
@@ -9347,7 +9365,7 @@
       <c r="L17" s="53"/>
       <c r="M17" s="17"/>
       <c r="N17" s="53" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="O17" s="64"/>
     </row>
@@ -9421,7 +9439,7 @@
     </row>
     <row r="22" s="3" customFormat="1" spans="1:15">
       <c r="A22" s="24" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -9443,25 +9461,25 @@
         <v>26</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="27" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
       <c r="J23" s="27" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K23" s="57"/>
       <c r="L23" s="57"/>
@@ -9474,21 +9492,21 @@
         <v>1</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
       <c r="G24" s="46" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="58"/>
       <c r="J24" s="46" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K24" s="47"/>
       <c r="L24" s="47"/>
@@ -9566,7 +9584,7 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="1:15">
       <c r="A29" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -9588,27 +9606,27 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="6" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -9617,23 +9635,23 @@
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="32"/>
       <c r="B31" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -9642,13 +9660,13 @@
     <row r="32" s="1" customFormat="1" spans="1:15">
       <c r="A32" s="32"/>
       <c r="B32" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -9663,7 +9681,7 @@
     <row r="33" s="1" customFormat="1" spans="1:15">
       <c r="A33" s="32"/>
       <c r="B33" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
@@ -9673,11 +9691,11 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="59" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M33" s="69"/>
       <c r="N33" s="69"/>
@@ -9686,7 +9704,7 @@
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="32"/>
       <c r="B34" s="33" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -9708,18 +9726,18 @@
         <v>26</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -9735,12 +9753,12 @@
         <v>1</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -9789,19 +9807,19 @@
     <row r="39" s="1" customFormat="1" spans="1:15">
       <c r="A39" s="32"/>
       <c r="B39" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="6"/>
@@ -9812,19 +9830,19 @@
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="32"/>
       <c r="B40" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="6"/>
@@ -9835,13 +9853,13 @@
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="32"/>
       <c r="B41" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -9856,7 +9874,7 @@
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="32"/>
       <c r="B42" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
@@ -9866,7 +9884,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="6"/>
@@ -9877,7 +9895,7 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="32"/>
       <c r="B43" s="33" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
@@ -9899,18 +9917,18 @@
         <v>26</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -10106,8 +10124,8 @@
   <sheetPr/>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:C31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10128,12 +10146,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -10149,20 +10167,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -10174,17 +10192,17 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="39"/>
@@ -10197,17 +10215,17 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="39"/>
@@ -10220,12 +10238,12 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -10258,7 +10276,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -10277,31 +10295,31 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>29</v>
@@ -10310,16 +10328,16 @@
         <v>30</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -10327,21 +10345,21 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I9" s="49" t="s">
         <v>33</v>
@@ -10362,10 +10380,10 @@
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="6" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="6" t="s">
@@ -10391,20 +10409,20 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -10418,21 +10436,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>33</v>
@@ -10451,26 +10469,26 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="17" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
@@ -10486,17 +10504,17 @@
       <c r="B14" s="73"/>
       <c r="C14" s="74"/>
       <c r="D14" s="75" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F14" s="76"/>
       <c r="G14" s="75" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="73" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I14" s="75" t="s">
         <v>39</v>
@@ -10517,15 +10535,15 @@
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="14"/>
       <c r="H15" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I15" s="49" t="s">
         <v>33</v>
@@ -10546,15 +10564,15 @@
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="17"/>
       <c r="H16" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I16" s="49" t="s">
         <v>33</v>
@@ -10575,15 +10593,15 @@
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="17"/>
       <c r="H17" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I17" s="49" t="s">
         <v>33</v>
@@ -10604,15 +10622,15 @@
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="17"/>
       <c r="H18" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I18" s="49" t="s">
         <v>33</v>
@@ -10633,10 +10651,10 @@
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F19" s="77"/>
       <c r="G19" s="21"/>
@@ -10660,47 +10678,55 @@
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F20" s="77"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="10" t="s">
-        <v>125</v>
-      </c>
+      <c r="G20" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="10"/>
       <c r="I20" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="50">
-        <v>200</v>
-      </c>
+      <c r="J20" s="50"/>
       <c r="K20" s="19"/>
       <c r="L20" s="54"/>
-      <c r="M20" s="21" t="s">
-        <v>226</v>
-      </c>
+      <c r="M20" s="21"/>
       <c r="N20" s="54" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O20" s="65"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="16.5" spans="1:15">
-      <c r="A21" s="19"/>
+    <row r="21" s="2" customFormat="1" ht="49.5" spans="1:15">
+      <c r="A21" s="19">
+        <v>13</v>
+      </c>
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>233</v>
+      </c>
       <c r="F21" s="77"/>
-      <c r="G21" s="21"/>
+      <c r="G21" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="H21" s="10"/>
-      <c r="I21" s="55"/>
+      <c r="I21" s="79" t="s">
+        <v>33</v>
+      </c>
       <c r="J21" s="50"/>
       <c r="K21" s="19"/>
       <c r="L21" s="54"/>
       <c r="M21" s="21"/>
-      <c r="N21" s="54"/>
+      <c r="N21" s="54" t="s">
+        <v>231</v>
+      </c>
       <c r="O21" s="65"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="16.5" spans="1:15">
@@ -10807,7 +10833,7 @@
     </row>
     <row r="28" s="3" customFormat="1" spans="1:15">
       <c r="A28" s="24" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -10829,25 +10855,25 @@
         <v>26</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="27" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="27" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
@@ -10860,21 +10886,21 @@
         <v>1</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
       <c r="G30" s="46" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="58"/>
       <c r="J30" s="46" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K30" s="47"/>
       <c r="L30" s="47"/>
@@ -10952,7 +10978,7 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="1:15">
       <c r="A35" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -10978,13 +11004,13 @@
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="27" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>28</v>
@@ -10992,7 +11018,7 @@
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
       <c r="J36" s="27" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
@@ -11005,23 +11031,23 @@
         <v>1</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F37" s="45"/>
       <c r="G37" s="46" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H37" s="47"/>
       <c r="I37" s="58"/>
       <c r="J37" s="46" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K37" s="47"/>
       <c r="L37" s="47"/>
@@ -11099,7 +11125,7 @@
     </row>
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -11121,27 +11147,27 @@
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -11150,23 +11176,23 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="32"/>
       <c r="B44" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -11175,13 +11201,13 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="32"/>
       <c r="B45" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -11196,7 +11222,7 @@
     <row r="46" s="1" customFormat="1" spans="1:15">
       <c r="A46" s="32"/>
       <c r="B46" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="6"/>
@@ -11206,11 +11232,11 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="59" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M46" s="69"/>
       <c r="N46" s="69"/>
@@ -11219,7 +11245,7 @@
     <row r="47" s="1" customFormat="1" spans="1:15">
       <c r="A47" s="32"/>
       <c r="B47" s="33" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -11241,18 +11267,18 @@
         <v>26</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -11268,12 +11294,12 @@
         <v>1</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -11322,19 +11348,19 @@
     <row r="52" s="1" customFormat="1" spans="1:15">
       <c r="A52" s="32"/>
       <c r="B52" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="6"/>
@@ -11345,19 +11371,19 @@
     <row r="53" s="1" customFormat="1" spans="1:15">
       <c r="A53" s="32"/>
       <c r="B53" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="6"/>
@@ -11368,13 +11394,13 @@
     <row r="54" s="1" customFormat="1" spans="1:15">
       <c r="A54" s="32"/>
       <c r="B54" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -11389,7 +11415,7 @@
     <row r="55" s="1" customFormat="1" spans="1:15">
       <c r="A55" s="32"/>
       <c r="B55" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
@@ -11399,7 +11425,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="6"/>
@@ -11410,7 +11436,7 @@
     <row r="56" s="1" customFormat="1" spans="1:15">
       <c r="A56" s="32"/>
       <c r="B56" s="33" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
@@ -11432,18 +11458,18 @@
         <v>26</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -11654,10 +11680,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11679,12 +11705,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -11700,20 +11726,20 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -11725,17 +11751,17 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="39"/>
@@ -11748,17 +11774,17 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="39"/>
@@ -11771,12 +11797,12 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -11809,7 +11835,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -11828,31 +11854,31 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>29</v>
@@ -11861,16 +11887,16 @@
         <v>30</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -11878,21 +11904,21 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I9" s="49" t="s">
         <v>33</v>
@@ -11913,15 +11939,15 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="14"/>
       <c r="H10" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I10" s="49" t="s">
         <v>33</v>
@@ -11942,15 +11968,15 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="17"/>
       <c r="H11" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I11" s="49" t="s">
         <v>33</v>
@@ -11971,15 +11997,15 @@
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="6" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="6"/>
       <c r="H12" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I12" s="49" t="s">
         <v>33</v>
@@ -12000,15 +12026,15 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="17"/>
       <c r="H13" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>39</v>
@@ -12027,10 +12053,10 @@
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="17"/>
@@ -12054,18 +12080,18 @@
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="21"/>
       <c r="H15" s="42" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J15" s="50"/>
       <c r="K15" s="19"/>
@@ -12083,18 +12109,18 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="6"/>
       <c r="H16" s="42" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J16" s="50"/>
       <c r="K16" s="10"/>
@@ -12112,10 +12138,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="6"/>
@@ -12139,10 +12165,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="6"/>
@@ -12166,15 +12192,15 @@
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="6" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="6"/>
       <c r="H19" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I19" s="49" t="s">
         <v>33</v>
@@ -12195,10 +12221,10 @@
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="6" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="6"/>
@@ -12220,7 +12246,7 @@
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="6" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>30</v>
@@ -12245,10 +12271,10 @@
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="6"/>
@@ -12335,7 +12361,7 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="1:15">
       <c r="A27" s="24" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -12357,25 +12383,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="27" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
       <c r="J28" s="27" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
@@ -12388,21 +12414,21 @@
         <v>1</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
       <c r="G29" s="46" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H29" s="47"/>
       <c r="I29" s="58"/>
       <c r="J29" s="46" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K29" s="47"/>
       <c r="L29" s="47"/>
@@ -12480,7 +12506,7 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -12502,27 +12528,27 @@
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="6" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -12531,23 +12557,23 @@
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="32"/>
       <c r="B36" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -12556,13 +12582,13 @@
     <row r="37" s="1" customFormat="1" spans="1:15">
       <c r="A37" s="32"/>
       <c r="B37" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -12577,7 +12603,7 @@
     <row r="38" s="1" customFormat="1" spans="1:15">
       <c r="A38" s="32"/>
       <c r="B38" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="6"/>
@@ -12587,11 +12613,11 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="59" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M38" s="69"/>
       <c r="N38" s="69"/>
@@ -12600,7 +12626,7 @@
     <row r="39" s="1" customFormat="1" spans="1:15">
       <c r="A39" s="32"/>
       <c r="B39" s="33" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
@@ -12622,18 +12648,18 @@
         <v>26</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -12649,12 +12675,12 @@
         <v>1</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -12700,410 +12726,8 @@
       <c r="N43" s="36"/>
       <c r="O43" s="48"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:15">
-      <c r="A44" s="32">
-        <v>1</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:15">
-      <c r="A45" s="32"/>
-      <c r="B45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:15">
-      <c r="A46" s="32"/>
-      <c r="B46" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:15">
-      <c r="A47" s="32"/>
-      <c r="B47" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:15">
-      <c r="A48" s="32"/>
-      <c r="B48" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="61"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:15">
-      <c r="A49" s="32"/>
-      <c r="B49" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:15">
-      <c r="A50" s="32"/>
-      <c r="B50" s="10">
-        <v>1</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:15">
-      <c r="A51" s="34"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="48"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:15">
-      <c r="A52" s="37"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="48"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:15">
-      <c r="A53" s="32">
-        <v>1</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K53" s="4"/>
-      <c r="L53" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:15">
-      <c r="A54" s="32"/>
-      <c r="B54" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K54" s="4"/>
-      <c r="L54" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:15">
-      <c r="A55" s="32"/>
-      <c r="B55" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:15">
-      <c r="A56" s="32"/>
-      <c r="B56" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K56" s="4"/>
-      <c r="L56" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:15">
-      <c r="A57" s="32"/>
-      <c r="B57" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="61"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:15">
-      <c r="A58" s="32"/>
-      <c r="B58" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:15">
-      <c r="A59" s="32"/>
-      <c r="B59" s="10">
-        <v>1</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:15">
-      <c r="A60" s="34"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="48"/>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:15">
-      <c r="A61" s="37"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="48"/>
-    </row>
   </sheetData>
-  <mergeCells count="163">
+  <mergeCells count="77">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:O1"/>
     <mergeCell ref="A2:C2"/>
@@ -13180,93 +12804,7 @@
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="L43:O43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:O56"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:O61"/>
     <mergeCell ref="A35:A43"/>
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="A53:A61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/code/backend/010.codegen/model/app-dev.service.xlsx
+++ b/code/backend/010.codegen/model/app-dev.service.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="288">
   <si>
     <t>#变量名</t>
   </si>
@@ -592,18 +592,12 @@
     <t>STD_DOMAIN</t>
   </si>
   <si>
-    <t>core/std-domain</t>
-  </si>
-  <si>
     <t>STD_SQL_TYPE</t>
   </si>
   <si>
     <t>标准 SQL 数据类型</t>
   </si>
   <si>
-    <t>core/std-sql-type</t>
-  </si>
-  <si>
     <t>PRECISION</t>
   </si>
   <si>
@@ -727,9 +721,6 @@
     <t>UNIQUE_KEYS</t>
   </si>
   <si>
-    <t>JSON 数组，元素为逗号分隔的属性列表</t>
-  </si>
-  <si>
     <t>ALIASES</t>
   </si>
   <si>
@@ -890,9 +881,6 @@
   </si>
   <si>
     <t>关联条件列表</t>
-  </si>
-  <si>
-    <t>JSON 数组，元素为逗号分隔的左右连接的实体属性名</t>
   </si>
   <si>
     <t>source</t>
@@ -2651,7 +2639,7 @@
   <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2699,7 +2687,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -2707,7 +2695,7 @@
         <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -2724,7 +2712,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -2747,7 +2735,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -2770,7 +2758,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -2907,10 +2895,10 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="14"/>
@@ -2936,10 +2924,10 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="17"/>
@@ -2965,10 +2953,10 @@
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -2994,10 +2982,10 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="17"/>
@@ -3021,7 +3009,7 @@
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>170</v>
@@ -3052,16 +3040,14 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>118</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="42" t="s">
-        <v>132</v>
-      </c>
+      <c r="H15" s="42"/>
       <c r="I15" s="49" t="s">
         <v>33</v>
       </c>
@@ -3081,10 +3067,10 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="6"/>
@@ -3099,21 +3085,21 @@
       <c r="L16" s="51"/>
       <c r="M16" s="6"/>
       <c r="N16" s="51" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="60" spans="1:15">
+    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:15">
       <c r="A17" s="10">
         <v>9</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="6" t="s">
@@ -3129,9 +3115,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="51"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="51" t="s">
-        <v>286</v>
-      </c>
+      <c r="N17" s="51"/>
       <c r="O17" s="10"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -3407,7 +3391,7 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:15">
       <c r="A33" s="24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -3433,7 +3417,7 @@
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>54</v>
@@ -3568,14 +3552,14 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -3584,7 +3568,7 @@
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -3653,7 +3637,7 @@
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M44" s="69"/>
       <c r="N44" s="69"/>
@@ -3711,12 +3695,12 @@
         <v>1</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -3771,7 +3755,7 @@
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="4" t="s">
@@ -3785,7 +3769,7 @@
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -3854,7 +3838,7 @@
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M53" s="69"/>
       <c r="N53" s="69"/>
@@ -3912,12 +3896,12 @@
         <v>1</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -4114,7 +4098,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4369,7 +4353,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -5105,7 +5089,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5372,9 +5356,7 @@
       <c r="I10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="15">
-        <v>50</v>
-      </c>
+      <c r="J10" s="15"/>
       <c r="K10" s="10"/>
       <c r="L10" s="51"/>
       <c r="M10" s="6"/>
@@ -5434,9 +5416,7 @@
       <c r="I12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="15">
-        <v>50</v>
-      </c>
+      <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="53"/>
       <c r="M12" s="17"/>
@@ -6431,8 +6411,8 @@
   <sheetPr/>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6792,9 +6772,7 @@
         <v>50</v>
       </c>
       <c r="K13" s="10"/>
-      <c r="L13" s="45" t="s">
-        <v>186</v>
-      </c>
+      <c r="L13" s="45"/>
       <c r="M13" s="6"/>
       <c r="N13" s="51"/>
       <c r="O13" s="10"/>
@@ -6806,10 +6784,10 @@
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="6"/>
@@ -6823,9 +6801,7 @@
         <v>50</v>
       </c>
       <c r="K14" s="10"/>
-      <c r="L14" s="45" t="s">
-        <v>189</v>
-      </c>
+      <c r="L14" s="45"/>
       <c r="M14" s="6"/>
       <c r="N14" s="51"/>
       <c r="O14" s="10"/>
@@ -6837,10 +6813,10 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="6"/>
@@ -6862,7 +6838,7 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>30</v>
@@ -7037,21 +7013,21 @@
         <v>1</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
       <c r="G25" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="58"/>
       <c r="J25" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K25" s="47"/>
       <c r="L25" s="47"/>
@@ -7654,7 +7630,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7701,7 +7677,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -7709,7 +7685,7 @@
         <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -7726,7 +7702,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -7749,7 +7725,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -7772,7 +7748,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -7989,7 +7965,7 @@
       <c r="L12" s="53"/>
       <c r="M12" s="17"/>
       <c r="N12" s="53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O12" s="64"/>
     </row>
@@ -8000,10 +7976,10 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="17"/>
@@ -8029,10 +8005,10 @@
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="6" t="s">
@@ -8259,21 +8235,21 @@
         <v>1</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
       <c r="G26" s="46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="58"/>
       <c r="J26" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K26" s="47"/>
       <c r="L26" s="47"/>
@@ -8876,7 +8852,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8924,7 +8900,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -8932,7 +8908,7 @@
         <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -8949,7 +8925,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -8972,7 +8948,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -8995,7 +8971,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -9145,9 +9121,7 @@
       <c r="I10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="15">
-        <v>50</v>
-      </c>
+      <c r="J10" s="15"/>
       <c r="K10" s="10"/>
       <c r="L10" s="51"/>
       <c r="M10" s="6"/>
@@ -9207,9 +9181,7 @@
       <c r="I12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="15">
-        <v>50</v>
-      </c>
+      <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="53"/>
       <c r="M12" s="17"/>
@@ -9496,17 +9468,17 @@
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
       <c r="G24" s="46" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="58"/>
       <c r="J24" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K24" s="47"/>
       <c r="L24" s="47"/>
@@ -9610,14 +9582,14 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -9695,7 +9667,7 @@
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M33" s="69"/>
       <c r="N33" s="69"/>
@@ -9753,12 +9725,12 @@
         <v>1</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -10125,7 +10097,7 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10172,7 +10144,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -10180,7 +10152,7 @@
         <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -10197,7 +10169,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -10220,7 +10192,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -10243,7 +10215,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -10535,10 +10507,10 @@
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="14"/>
@@ -10596,7 +10568,7 @@
         <v>184</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="17"/>
@@ -10622,7 +10594,7 @@
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>111</v>
@@ -10651,7 +10623,7 @@
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>118</v>
@@ -10671,14 +10643,14 @@
       <c r="N19" s="54"/>
       <c r="O19" s="65"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="49.5" spans="1:15">
+    <row r="20" s="2" customFormat="1" ht="16.5" spans="1:15">
       <c r="A20" s="19">
         <v>12</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>156</v>
@@ -10695,22 +10667,20 @@
       <c r="K20" s="19"/>
       <c r="L20" s="54"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="54" t="s">
-        <v>231</v>
-      </c>
+      <c r="N20" s="54"/>
       <c r="O20" s="65"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="49.5" spans="1:15">
+    <row r="21" s="2" customFormat="1" ht="16.5" spans="1:15">
       <c r="A21" s="19">
         <v>13</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F21" s="77"/>
       <c r="G21" s="21" t="s">
@@ -10724,9 +10694,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="54"/>
       <c r="M21" s="21"/>
-      <c r="N21" s="54" t="s">
-        <v>231</v>
-      </c>
+      <c r="N21" s="54"/>
       <c r="O21" s="65"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="16.5" spans="1:15">
@@ -10886,21 +10854,21 @@
         <v>1</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
       <c r="G30" s="46" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="58"/>
       <c r="J30" s="46" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K30" s="47"/>
       <c r="L30" s="47"/>
@@ -10978,7 +10946,7 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="1:15">
       <c r="A35" s="24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -11004,7 +10972,7 @@
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>54</v>
@@ -11031,11 +10999,11 @@
         <v>1</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E37" s="45" t="s">
         <v>115</v>
@@ -11151,14 +11119,14 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -11167,7 +11135,7 @@
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -11236,7 +11204,7 @@
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M46" s="69"/>
       <c r="N46" s="69"/>
@@ -11294,12 +11262,12 @@
         <v>1</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -11683,7 +11651,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11731,7 +11699,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -11739,7 +11707,7 @@
         <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -11756,7 +11724,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -11779,7 +11747,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -11802,7 +11770,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -11939,10 +11907,10 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="14"/>
@@ -12026,7 +11994,7 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>121</v>
@@ -12053,7 +12021,7 @@
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>118</v>
@@ -12080,10 +12048,10 @@
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="21"/>
@@ -12091,7 +12059,7 @@
         <v>132</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J15" s="50"/>
       <c r="K15" s="19"/>
@@ -12109,10 +12077,10 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="6"/>
@@ -12120,7 +12088,7 @@
         <v>132</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J16" s="50"/>
       <c r="K16" s="10"/>
@@ -12138,7 +12106,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>124</v>
@@ -12165,10 +12133,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="6"/>
@@ -12192,10 +12160,10 @@
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="6"/>
@@ -12221,10 +12189,10 @@
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="6"/>
@@ -12246,7 +12214,7 @@
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>30</v>
@@ -12271,10 +12239,10 @@
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="6"/>
@@ -12414,21 +12382,21 @@
         <v>1</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
       <c r="G29" s="46" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H29" s="47"/>
       <c r="I29" s="58"/>
       <c r="J29" s="46" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K29" s="47"/>
       <c r="L29" s="47"/>
@@ -12532,14 +12500,14 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -12548,7 +12516,7 @@
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -12617,7 +12585,7 @@
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M38" s="69"/>
       <c r="N38" s="69"/>
@@ -12675,12 +12643,12 @@
         <v>1</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>

--- a/code/backend/010.codegen/model/app-dev.service.xlsx
+++ b/code/backend/010.codegen/model/app-dev.service.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330" activeTab="4"/>
+    <workbookView windowWidth="27645" windowHeight="12330" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="287">
   <si>
     <t>#变量名</t>
   </si>
@@ -457,9 +457,6 @@
     <t>更新人</t>
   </si>
   <si>
-    <t>sort,sort-desc</t>
-  </si>
-  <si>
     <t>UPDATED_AT</t>
   </si>
   <si>
@@ -823,7 +820,7 @@
     <t>entity</t>
   </si>
   <si>
-    <t>props</t>
+    <t>pub,ref-cascade-delete</t>
   </si>
   <si>
     <t>entityId</t>
@@ -2639,7 +2636,7 @@
   <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2687,7 +2684,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -2695,7 +2692,7 @@
         <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -2712,7 +2709,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -2735,7 +2732,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -2758,7 +2755,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -2895,10 +2892,10 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>270</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>271</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="14"/>
@@ -2924,10 +2921,10 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>272</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>273</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="17"/>
@@ -2953,10 +2950,10 @@
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>274</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>275</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -2982,10 +2979,10 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>277</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="17"/>
@@ -3009,10 +3006,10 @@
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="21"/>
@@ -3040,7 +3037,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>118</v>
@@ -3067,10 +3064,10 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="6"/>
@@ -3085,7 +3082,7 @@
       <c r="L16" s="51"/>
       <c r="M16" s="6"/>
       <c r="N16" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O16" s="10"/>
     </row>
@@ -3096,10 +3093,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="6" t="s">
@@ -3256,7 +3253,7 @@
     </row>
     <row r="26" s="3" customFormat="1" spans="1:15">
       <c r="A26" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -3278,7 +3275,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="27" t="s">
@@ -3291,12 +3288,12 @@
         <v>56</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="J27" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
@@ -3391,7 +3388,7 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:15">
       <c r="A33" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -3417,7 +3414,7 @@
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>54</v>
@@ -3526,7 +3523,7 @@
     </row>
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -3548,27 +3545,27 @@
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -3583,13 +3580,13 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="6" t="s">
@@ -3608,7 +3605,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -3637,7 +3634,7 @@
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M44" s="69"/>
       <c r="N44" s="69"/>
@@ -3646,7 +3643,7 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="32"/>
       <c r="B45" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -3668,18 +3665,18 @@
         <v>26</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -3695,12 +3692,12 @@
         <v>1</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -3751,25 +3748,25 @@
         <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -3784,13 +3781,13 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="6" t="s">
@@ -3809,7 +3806,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -3838,7 +3835,7 @@
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M53" s="69"/>
       <c r="N53" s="69"/>
@@ -3847,7 +3844,7 @@
     <row r="54" s="1" customFormat="1" spans="1:15">
       <c r="A54" s="32"/>
       <c r="B54" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
@@ -3869,18 +3866,18 @@
         <v>26</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -3896,12 +3893,12 @@
         <v>1</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -5088,8 +5085,8 @@
   <sheetPr/>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5431,13 +5428,13 @@
         <v>138</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>143</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="17" t="s">
@@ -5463,10 +5460,10 @@
       <c r="B14" s="73"/>
       <c r="C14" s="74"/>
       <c r="D14" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="75" t="s">
         <v>144</v>
-      </c>
-      <c r="E14" s="75" t="s">
-        <v>145</v>
       </c>
       <c r="F14" s="76"/>
       <c r="G14" s="75" t="s">
@@ -5494,10 +5491,10 @@
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="17"/>
@@ -5523,7 +5520,7 @@
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>60</v>
@@ -5543,7 +5540,7 @@
       <c r="L16" s="53"/>
       <c r="M16" s="17"/>
       <c r="N16" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O16" s="64"/>
     </row>
@@ -5554,10 +5551,10 @@
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>151</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="17"/>
@@ -5583,10 +5580,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="6" t="s">
@@ -5610,10 +5607,10 @@
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="6"/>
@@ -5736,7 +5733,7 @@
     </row>
     <row r="26" s="3" customFormat="1" spans="1:15">
       <c r="A26" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -5758,7 +5755,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="27" t="s">
@@ -5771,12 +5768,12 @@
         <v>56</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="J27" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
@@ -5789,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
@@ -5798,7 +5795,7 @@
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
       <c r="G28" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H28" s="47"/>
       <c r="I28" s="58"/>
@@ -5814,16 +5811,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
       <c r="G29" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H29" s="47"/>
       <c r="I29" s="58"/>
@@ -5887,7 +5884,7 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="1:15">
       <c r="A33" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -5907,19 +5904,19 @@
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="32"/>
       <c r="B34" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="6"/>
@@ -5936,13 +5933,13 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="6"/>
@@ -5959,7 +5956,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -5995,7 +5992,7 @@
     <row r="38" s="1" customFormat="1" spans="1:15">
       <c r="A38" s="32"/>
       <c r="B38" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -6017,18 +6014,18 @@
         <v>26</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -6094,19 +6091,19 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="32"/>
       <c r="B43" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="6"/>
@@ -6123,13 +6120,13 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="6"/>
@@ -6146,7 +6143,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -6182,7 +6179,7 @@
     <row r="47" s="1" customFormat="1" spans="1:15">
       <c r="A47" s="32"/>
       <c r="B47" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -6204,18 +6201,18 @@
         <v>26</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -6411,8 +6408,8 @@
   <sheetPr/>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6460,7 +6457,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -6468,7 +6465,7 @@
         <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -6485,7 +6482,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -6508,7 +6505,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -6531,7 +6528,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -6668,10 +6665,10 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>182</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="14"/>
@@ -6697,10 +6694,10 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="17"/>
@@ -6728,7 +6725,7 @@
         <v>84</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>60</v>
@@ -6757,7 +6754,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>27</v>
@@ -6784,10 +6781,10 @@
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="6"/>
@@ -6813,10 +6810,10 @@
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="6"/>
@@ -6838,7 +6835,7 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>30</v>
@@ -6960,7 +6957,7 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:15">
       <c r="A23" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6982,7 +6979,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="27" t="s">
@@ -6995,12 +6992,12 @@
         <v>56</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="J24" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K24" s="57"/>
       <c r="L24" s="57"/>
@@ -7013,21 +7010,21 @@
         <v>1</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
       <c r="G25" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="58"/>
       <c r="J25" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K25" s="47"/>
       <c r="L25" s="47"/>
@@ -7105,7 +7102,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:15">
       <c r="A30" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -7125,19 +7122,19 @@
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="32"/>
       <c r="B31" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="6"/>
@@ -7154,13 +7151,13 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="6"/>
@@ -7177,7 +7174,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -7213,7 +7210,7 @@
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="32"/>
       <c r="B35" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
@@ -7235,18 +7232,18 @@
         <v>26</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -7312,19 +7309,19 @@
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="32"/>
       <c r="B40" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="6"/>
@@ -7341,13 +7338,13 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="6"/>
@@ -7364,7 +7361,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -7400,7 +7397,7 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="32"/>
       <c r="B44" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
@@ -7422,18 +7419,18 @@
         <v>26</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -7630,7 +7627,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7677,7 +7674,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -7685,7 +7682,7 @@
         <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -7702,7 +7699,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -7725,7 +7722,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -7748,7 +7745,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -7885,10 +7882,10 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>182</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="14"/>
@@ -7914,10 +7911,10 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="17"/>
@@ -7945,7 +7942,7 @@
         <v>84</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>5</v>
@@ -7965,7 +7962,7 @@
       <c r="L12" s="53"/>
       <c r="M12" s="17"/>
       <c r="N12" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O12" s="64"/>
     </row>
@@ -7976,10 +7973,10 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>201</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>202</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="17"/>
@@ -8005,10 +8002,10 @@
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="6" t="s">
@@ -8182,7 +8179,7 @@
     </row>
     <row r="24" s="3" customFormat="1" spans="1:15">
       <c r="A24" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -8204,7 +8201,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="27" t="s">
@@ -8217,12 +8214,12 @@
         <v>56</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -8235,21 +8232,21 @@
         <v>1</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
       <c r="G26" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="58"/>
       <c r="J26" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K26" s="47"/>
       <c r="L26" s="47"/>
@@ -8327,7 +8324,7 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -8347,19 +8344,19 @@
     <row r="32" s="1" customFormat="1" spans="1:15">
       <c r="A32" s="32"/>
       <c r="B32" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="6"/>
@@ -8376,13 +8373,13 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="6"/>
@@ -8399,7 +8396,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -8435,7 +8432,7 @@
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="32"/>
       <c r="B36" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -8457,18 +8454,18 @@
         <v>26</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -8534,19 +8531,19 @@
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="32"/>
       <c r="B41" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="6"/>
@@ -8563,13 +8560,13 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="6"/>
@@ -8586,7 +8583,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -8622,7 +8619,7 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="32"/>
       <c r="B45" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -8644,18 +8641,18 @@
         <v>26</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -8852,7 +8849,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8900,7 +8897,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -8908,7 +8905,7 @@
         <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -8925,7 +8922,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -8948,7 +8945,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -8971,7 +8968,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -9196,13 +9193,13 @@
         <v>138</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>143</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="17" t="s">
@@ -9228,10 +9225,10 @@
       <c r="B14" s="73"/>
       <c r="C14" s="74"/>
       <c r="D14" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="75" t="s">
         <v>144</v>
-      </c>
-      <c r="E14" s="75" t="s">
-        <v>145</v>
       </c>
       <c r="F14" s="76"/>
       <c r="G14" s="75" t="s">
@@ -9259,10 +9256,10 @@
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>182</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="14"/>
@@ -9288,10 +9285,10 @@
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="17"/>
@@ -9317,7 +9314,7 @@
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>60</v>
@@ -9337,7 +9334,7 @@
       <c r="L17" s="53"/>
       <c r="M17" s="17"/>
       <c r="N17" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O17" s="64"/>
     </row>
@@ -9411,7 +9408,7 @@
     </row>
     <row r="22" s="3" customFormat="1" spans="1:15">
       <c r="A22" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -9433,7 +9430,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="27" t="s">
@@ -9446,12 +9443,12 @@
         <v>56</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
       <c r="J23" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K23" s="57"/>
       <c r="L23" s="57"/>
@@ -9464,21 +9461,21 @@
         <v>1</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
       <c r="G24" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="58"/>
       <c r="J24" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K24" s="47"/>
       <c r="L24" s="47"/>
@@ -9556,7 +9553,7 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="1:15">
       <c r="A29" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -9578,23 +9575,23 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="6" t="s">
@@ -9613,13 +9610,13 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="6" t="s">
@@ -9638,7 +9635,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -9667,7 +9664,7 @@
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M33" s="69"/>
       <c r="N33" s="69"/>
@@ -9676,7 +9673,7 @@
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="32"/>
       <c r="B34" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -9698,18 +9695,18 @@
         <v>26</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -9725,12 +9722,12 @@
         <v>1</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -9779,19 +9776,19 @@
     <row r="39" s="1" customFormat="1" spans="1:15">
       <c r="A39" s="32"/>
       <c r="B39" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="6"/>
@@ -9814,7 +9811,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="6"/>
@@ -9825,13 +9822,13 @@
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="32"/>
       <c r="B41" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -9867,7 +9864,7 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="32"/>
       <c r="B43" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
@@ -9889,18 +9886,18 @@
         <v>26</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -10096,8 +10093,8 @@
   <sheetPr/>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G43" sqref="G43:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10144,7 +10141,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -10152,7 +10149,7 @@
         <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -10169,7 +10166,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -10192,14 +10189,16 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
@@ -10215,7 +10214,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -10444,13 +10443,13 @@
         <v>138</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>143</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="17" t="s">
@@ -10476,10 +10475,10 @@
       <c r="B14" s="73"/>
       <c r="C14" s="74"/>
       <c r="D14" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="75" t="s">
         <v>144</v>
-      </c>
-      <c r="E14" s="75" t="s">
-        <v>145</v>
       </c>
       <c r="F14" s="76"/>
       <c r="G14" s="75" t="s">
@@ -10507,10 +10506,10 @@
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>223</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>224</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="14"/>
@@ -10536,10 +10535,10 @@
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="17"/>
@@ -10565,10 +10564,10 @@
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="17"/>
@@ -10594,7 +10593,7 @@
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>111</v>
@@ -10623,7 +10622,7 @@
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>118</v>
@@ -10650,10 +10649,10 @@
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F20" s="77"/>
       <c r="G20" s="21" t="s">
@@ -10677,10 +10676,10 @@
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>229</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>230</v>
       </c>
       <c r="F21" s="77"/>
       <c r="G21" s="21" t="s">
@@ -10801,7 +10800,7 @@
     </row>
     <row r="28" s="3" customFormat="1" spans="1:15">
       <c r="A28" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -10823,7 +10822,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="27" t="s">
@@ -10836,12 +10835,12 @@
         <v>56</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
@@ -10854,21 +10853,21 @@
         <v>1</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
       <c r="G30" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="58"/>
       <c r="J30" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K30" s="47"/>
       <c r="L30" s="47"/>
@@ -10946,7 +10945,7 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="1:15">
       <c r="A35" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -10972,7 +10971,7 @@
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>54</v>
@@ -10999,11 +10998,11 @@
         <v>1</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E37" s="45" t="s">
         <v>115</v>
@@ -11093,7 +11092,7 @@
     </row>
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -11115,27 +11114,27 @@
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -11150,13 +11149,13 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="6" t="s">
@@ -11175,7 +11174,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -11204,7 +11203,7 @@
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M46" s="69"/>
       <c r="N46" s="69"/>
@@ -11213,7 +11212,7 @@
     <row r="47" s="1" customFormat="1" spans="1:15">
       <c r="A47" s="32"/>
       <c r="B47" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -11235,18 +11234,18 @@
         <v>26</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -11262,12 +11261,12 @@
         <v>1</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -11316,19 +11315,19 @@
     <row r="52" s="1" customFormat="1" spans="1:15">
       <c r="A52" s="32"/>
       <c r="B52" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="6"/>
@@ -11345,13 +11344,13 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="6"/>
@@ -11368,7 +11367,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -11404,7 +11403,7 @@
     <row r="56" s="1" customFormat="1" spans="1:15">
       <c r="A56" s="32"/>
       <c r="B56" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
@@ -11426,18 +11425,18 @@
         <v>26</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -11650,8 +11649,8 @@
   <sheetPr/>
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39:O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11699,7 +11698,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -11707,7 +11706,7 @@
         <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -11724,7 +11723,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -11747,7 +11746,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -11770,7 +11769,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -11907,10 +11906,10 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>244</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>245</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="14"/>
@@ -11936,10 +11935,10 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="17"/>
@@ -11965,7 +11964,7 @@
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>123</v>
@@ -11994,7 +11993,7 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>121</v>
@@ -12021,7 +12020,7 @@
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>118</v>
@@ -12048,10 +12047,10 @@
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>247</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>248</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="21"/>
@@ -12059,7 +12058,7 @@
         <v>132</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J15" s="50"/>
       <c r="K15" s="19"/>
@@ -12077,10 +12076,10 @@
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="6"/>
@@ -12088,7 +12087,7 @@
         <v>132</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J16" s="50"/>
       <c r="K16" s="10"/>
@@ -12106,7 +12105,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>124</v>
@@ -12133,10 +12132,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="6"/>
@@ -12160,16 +12159,14 @@
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="10" t="s">
-        <v>132</v>
-      </c>
+      <c r="H19" s="10"/>
       <c r="I19" s="49" t="s">
         <v>33</v>
       </c>
@@ -12189,10 +12186,10 @@
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="6"/>
@@ -12214,7 +12211,7 @@
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>30</v>
@@ -12239,10 +12236,10 @@
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="6"/>
@@ -12329,7 +12326,7 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="1:15">
       <c r="A27" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -12351,7 +12348,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="27" t="s">
@@ -12364,12 +12361,12 @@
         <v>56</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
       <c r="J28" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
@@ -12382,21 +12379,21 @@
         <v>1</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
       <c r="G29" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H29" s="47"/>
       <c r="I29" s="58"/>
       <c r="J29" s="46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K29" s="47"/>
       <c r="L29" s="47"/>
@@ -12474,7 +12471,7 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -12496,27 +12493,25 @@
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>263</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -12531,13 +12526,13 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="6" t="s">
@@ -12556,7 +12551,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -12585,7 +12580,7 @@
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="59" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="M38" s="69"/>
       <c r="N38" s="69"/>
@@ -12594,7 +12589,7 @@
     <row r="39" s="1" customFormat="1" spans="1:15">
       <c r="A39" s="32"/>
       <c r="B39" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
@@ -12616,18 +12611,18 @@
         <v>26</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -12643,12 +12638,12 @@
         <v>1</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>

--- a/code/backend/010.codegen/model/app-dev.service.xlsx
+++ b/code/backend/010.codegen/model/app-dev.service.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="288">
   <si>
     <t>#变量名</t>
   </si>
@@ -820,7 +820,10 @@
     <t>entity</t>
   </si>
   <si>
-    <t>pub,ref-cascade-delete</t>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>pub,ref-cascade-delete,ref-connection</t>
   </si>
   <si>
     <t>entityId</t>
@@ -2635,7 +2638,7 @@
   <sheetPr/>
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
@@ -2684,7 +2687,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -2692,7 +2695,7 @@
         <v>113</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -2709,7 +2712,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -2732,7 +2735,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -2755,7 +2758,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -2892,10 +2895,10 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="14"/>
@@ -2921,10 +2924,10 @@
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="17"/>
@@ -2950,10 +2953,10 @@
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -2979,10 +2982,10 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="17"/>
@@ -3006,7 +3009,7 @@
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>169</v>
@@ -3067,7 +3070,7 @@
         <v>225</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="6"/>
@@ -3082,7 +3085,7 @@
       <c r="L16" s="51"/>
       <c r="M16" s="6"/>
       <c r="N16" s="51" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O16" s="10"/>
     </row>
@@ -3093,10 +3096,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="6" t="s">
@@ -3549,14 +3552,14 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
         <v>166</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -3692,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -3752,7 +3755,7 @@
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="4" t="s">
@@ -3893,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -10094,7 +10097,7 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G43" sqref="G43:I43"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11649,7 +11652,7 @@
   <sheetPr/>
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L39" sqref="L39:O39"/>
     </sheetView>
   </sheetViews>
@@ -12503,7 +12506,9 @@
       <c r="F35" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="4" t="s">
@@ -12580,7 +12585,7 @@
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="59" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M38" s="69"/>
       <c r="N38" s="69"/>
@@ -12638,7 +12643,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>

--- a/code/backend/010.codegen/model/app-dev.service.xlsx
+++ b/code/backend/010.codegen/model/app-dev.service.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330" firstSheet="6" activeTab="8"/>
+    <workbookView windowWidth="27645" windowHeight="12330" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -2638,8 +2638,8 @@
   <sheetPr/>
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6412,7 +6412,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8852,7 +8852,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10096,8 +10096,8 @@
   <sheetPr/>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11652,8 +11652,8 @@
   <sheetPr/>
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39:O39"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12120,7 +12120,7 @@
         <v>33</v>
       </c>
       <c r="J17" s="50">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="51"/>
@@ -12147,7 +12147,7 @@
         <v>33</v>
       </c>
       <c r="J18" s="50">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="51"/>
